--- a/sum01.xlsx
+++ b/sum01.xlsx
@@ -24,6 +24,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,10 +106,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -128,6 +129,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">A2+B2</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
